--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
@@ -540,10 +540,10 @@
         <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J2">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.878910333333334</v>
+        <v>5.986083666666667</v>
       </c>
       <c r="N2">
-        <v>20.636731</v>
+        <v>17.958251</v>
       </c>
       <c r="O2">
-        <v>0.14811996585983</v>
+        <v>0.1400451834753423</v>
       </c>
       <c r="P2">
-        <v>0.14811996585983</v>
+        <v>0.1400451834753423</v>
       </c>
       <c r="Q2">
-        <v>62.98990217997979</v>
+        <v>54.81432470159756</v>
       </c>
       <c r="R2">
-        <v>566.9091196198181</v>
+        <v>493.3289223143781</v>
       </c>
       <c r="S2">
-        <v>0.1435977838749157</v>
+        <v>0.1357558364398901</v>
       </c>
       <c r="T2">
-        <v>0.1435977838749156</v>
+        <v>0.1357558364398901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J3">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>66.68950099999999</v>
       </c>
       <c r="O3">
-        <v>0.4786633411720634</v>
+        <v>0.5200697664501973</v>
       </c>
       <c r="P3">
-        <v>0.4786633411720634</v>
+        <v>0.5200697664501973</v>
       </c>
       <c r="Q3">
         <v>203.5576828724309</v>
@@ -632,10 +632,10 @@
         <v>1832.019145851878</v>
       </c>
       <c r="S3">
-        <v>0.464049492689708</v>
+        <v>0.5041409093799774</v>
       </c>
       <c r="T3">
-        <v>0.464049492689708</v>
+        <v>0.5041409093799774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J4">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.33273533333333</v>
+        <v>14.528028</v>
       </c>
       <c r="N4">
-        <v>51.998206</v>
+        <v>43.584084</v>
       </c>
       <c r="O4">
-        <v>0.3732166929681066</v>
+        <v>0.3398850500744605</v>
       </c>
       <c r="P4">
-        <v>0.3732166929681066</v>
+        <v>0.3398850500744605</v>
       </c>
       <c r="Q4">
-        <v>158.7151525827631</v>
+        <v>133.032561589528</v>
       </c>
       <c r="R4">
-        <v>1428.436373244868</v>
+        <v>1197.293054305752</v>
       </c>
       <c r="S4">
-        <v>0.3618221871996753</v>
+        <v>0.3294749460226629</v>
       </c>
       <c r="T4">
-        <v>0.3618221871996752</v>
+        <v>0.3294749460226629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H5">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.878910333333334</v>
+        <v>5.986083666666667</v>
       </c>
       <c r="N5">
-        <v>20.636731</v>
+        <v>17.958251</v>
       </c>
       <c r="O5">
-        <v>0.14811996585983</v>
+        <v>0.1400451834753423</v>
       </c>
       <c r="P5">
-        <v>0.14811996585983</v>
+        <v>0.1400451834753423</v>
       </c>
       <c r="Q5">
-        <v>1.983678251733667</v>
+        <v>1.731915675413445</v>
       </c>
       <c r="R5">
-        <v>17.853104265603</v>
+        <v>15.587241078721</v>
       </c>
       <c r="S5">
-        <v>0.004522181984914348</v>
+        <v>0.004289347035452157</v>
       </c>
       <c r="T5">
-        <v>0.004522181984914348</v>
+        <v>0.004289347035452157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H6">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>66.68950099999999</v>
       </c>
       <c r="O6">
-        <v>0.4786633411720634</v>
+        <v>0.5200697664501973</v>
       </c>
       <c r="P6">
-        <v>0.4786633411720634</v>
+        <v>0.5200697664501973</v>
       </c>
       <c r="Q6">
-        <v>6.410439364290332</v>
+        <v>6.431616985830111</v>
       </c>
       <c r="R6">
-        <v>57.69395427861299</v>
+        <v>57.884552872471</v>
       </c>
       <c r="S6">
-        <v>0.01461384848235543</v>
+        <v>0.0159288570702199</v>
       </c>
       <c r="T6">
-        <v>0.01461384848235544</v>
+        <v>0.0159288570702199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H7">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.33273533333333</v>
+        <v>14.528028</v>
       </c>
       <c r="N7">
-        <v>51.998206</v>
+        <v>43.584084</v>
       </c>
       <c r="O7">
-        <v>0.3732166929681066</v>
+        <v>0.3398850500744605</v>
       </c>
       <c r="P7">
-        <v>0.3732166929681066</v>
+        <v>0.3398850500744605</v>
       </c>
       <c r="Q7">
-        <v>4.998258220808666</v>
+        <v>4.203302330396001</v>
       </c>
       <c r="R7">
-        <v>44.984323987278</v>
+        <v>37.82972097356401</v>
       </c>
       <c r="S7">
-        <v>0.0113945057684313</v>
+        <v>0.01041010405179757</v>
       </c>
       <c r="T7">
-        <v>0.0113945057684313</v>
+        <v>0.01041010405179757</v>
       </c>
     </row>
   </sheetData>
